--- a/webai/knfile/AI配置.xlsx
+++ b/webai/knfile/AI配置.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\webai\knfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563067E-06DA-4E4F-8BE7-3FA6D3AF86D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3DC9D-A6B5-4FB7-80BF-3F5DC3495927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,39 +77,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成AI处理前后对比文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表情符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ollama Host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ollama Port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ollama Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示语义分析打分及内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.96.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qwen3:32b</t>
+    <t>利用AI总结文章内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,15 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -478,49 +455,17 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>11434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -555,7 +500,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -563,7 +508,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>8</v>

--- a/webai/knfile/AI配置.xlsx
+++ b/webai/knfile/AI配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\webai\knfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\KnoLib\webai\knfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3DC9D-A6B5-4FB7-80BF-3F5DC3495927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D936F-A891-418F-B4CC-86AEEDC1C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -430,22 +430,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.46484375" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -480,17 +480,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02000C99-72CF-4549-9323-1E31A1D9E2E1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.46484375" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,15 +498,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>

--- a/webai/knfile/AI配置.xlsx
+++ b/webai/knfile/AI配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\KnoLib\webai\knfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\KnoLib\webai\knfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8D936F-A891-418F-B4CC-86AEEDC1C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF570D47-D96E-421A-9851-2C4E8DD466C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="配置" sheetId="1" r:id="rId1"/>
@@ -77,15 +77,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表情符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>利用AI总结文章内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请判断下列文字是不是只含有关于表情符号的信息,注意是只含有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请判断下列文字是不是只含有关于投票的信息,注意是只含有。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,9 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,21 +443,21 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="27.46484375" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -461,9 +473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -481,37 +493,37 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="70.9296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
